--- a/2023/portugal_liga-portugal_2023-2024.xlsx
+++ b/2023/portugal_liga-portugal_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V46"/>
+  <dimension ref="A1:V47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4689,6 +4689,98 @@
         </is>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>45191.88541666666</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Famalicao</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Arouca</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>17/09/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>22/09/2023 21:00</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>17/09/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>22/09/2023 20:58</t>
+        </is>
+      </c>
+      <c r="R47" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>17/09/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T47" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>22/09/2023 21:00</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/famalicao-arouca/rsDhXiL9/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/portugal_liga-portugal_2023-2024.xlsx
+++ b/2023/portugal_liga-portugal_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V47"/>
+  <dimension ref="A1:V54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1677,22 +1677,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Portimonense</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Boavista</t>
+          <t>Estrela</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2.45</v>
+        <v>1.12</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1700,15 +1700,15 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>3.35</v>
+        <v>1.15</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>19/08/2023 21:28</t>
+          <t>19/08/2023 20:57</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.31</v>
+        <v>10.69</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1716,15 +1716,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.24</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>19/08/2023 21:22</t>
+          <t>19/08/2023 21:25</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>3.16</v>
+        <v>22.27</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -1732,16 +1732,16 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>2.38</v>
+        <v>19.04</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>19/08/2023 21:28</t>
+          <t>19/08/2023 21:25</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/portimonense-boavista/C0wwkNoJ/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/benfica-estrela-da-amadora/zFdna79Q/</t>
         </is>
       </c>
     </row>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Portimonense</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Estrela</t>
+          <t>Boavista</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J15" t="n">
-        <v>1.12</v>
+        <v>2.45</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.15</v>
+        <v>3.35</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>19/08/2023 20:57</t>
+          <t>19/08/2023 21:28</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>10.69</v>
+        <v>3.31</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>8.859999999999999</v>
+        <v>3.24</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>19/08/2023 21:25</t>
+          <t>19/08/2023 21:22</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>22.27</v>
+        <v>3.16</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>19.04</v>
+        <v>2.38</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>19/08/2023 21:25</t>
+          <t>19/08/2023 21:28</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/benfica-estrela-da-amadora/zFdna79Q/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/portimonense-boavista/C0wwkNoJ/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Arouca</t>
+          <t>Gil Vicente</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Estoril</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J42" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.93</v>
+        <v>2.05</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>17/09/2023 16:27</t>
+          <t>17/09/2023 16:29</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.42</v>
+        <v>3.65</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.23</v>
+        <v>3.53</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         </is>
       </c>
       <c r="R42" t="n">
-        <v>3.66</v>
+        <v>3.54</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>2.66</v>
+        <v>3.87</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/arouca-casa-pia/YkfRciUj/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/gil-vicente-estoril/zyjRGWzT/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Gil Vicente</t>
+          <t>Arouca</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Estoril</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,48 +4368,48 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.05</v>
+        <v>2.93</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
+          <t>17/09/2023 16:27</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>04/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
           <t>17/09/2023 16:29</t>
         </is>
       </c>
-      <c r="N43" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="O43" t="inlineStr">
+      <c r="R43" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="S43" t="inlineStr">
         <is>
           <t>04/09/2023 18:12</t>
         </is>
       </c>
-      <c r="P43" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="Q43" t="inlineStr">
+      <c r="T43" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="U43" t="inlineStr">
         <is>
           <t>17/09/2023 16:29</t>
         </is>
       </c>
-      <c r="R43" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>04/09/2023 18:12</t>
-        </is>
-      </c>
-      <c r="T43" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="U43" t="inlineStr">
-        <is>
-          <t>17/09/2023 16:29</t>
-        </is>
-      </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/gil-vicente-estoril/zyjRGWzT/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/arouca-casa-pia/YkfRciUj/</t>
         </is>
       </c>
     </row>
@@ -4778,6 +4778,650 @@
       <c r="V47" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/portugal/liga-portugal/famalicao-arouca/rsDhXiL9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>45192.6875</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Estoril</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>2</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Vizela</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>2</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>17/09/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>23/09/2023 16:25</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>17/09/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>23/09/2023 16:27</t>
+        </is>
+      </c>
+      <c r="R48" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>17/09/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T48" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>23/09/2023 16:27</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/estoril-vizela/MROqZDjc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>45192.6875</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Moreirense</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>SC Farense</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>19/09/2023 06:12</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>23/09/2023 16:26</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>19/09/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:52</t>
+        </is>
+      </c>
+      <c r="R49" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>19/09/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T49" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>23/09/2023 16:26</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/moreirense-sc-farense/fZBWP9Dq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>45192.79166666666</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Casa Pia</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Vitoria Guimaraes</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>19/09/2023 06:12</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:51</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>19/09/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:52</t>
+        </is>
+      </c>
+      <c r="R50" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>19/09/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T50" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:52</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/casa-pia-vitoria-guimaraes/YBV1AUDd/</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>45192.89583333334</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>FC Porto</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>2</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Gil Vicente</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>17/09/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>23/09/2023 21:23</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>9.33</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>17/09/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>6.97</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>23/09/2023 21:28</t>
+        </is>
+      </c>
+      <c r="R51" t="n">
+        <v>16.99</v>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>17/09/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T51" t="n">
+        <v>10.95</v>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>23/09/2023 21:28</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/fc-porto-gil-vicente/EuU3Uk5S/</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>45193.6875</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Chaves</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>2</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Estrela</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>2</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>20/09/2023 03:42</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:28</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>20/09/2023 03:42</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:28</t>
+        </is>
+      </c>
+      <c r="R52" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>20/09/2023 03:42</t>
+        </is>
+      </c>
+      <c r="T52" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:28</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/chaves-estrela-da-amadora/fLWcBAbj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>45193.79166666666</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Portimonense</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>3</v>
+      </c>
+      <c r="J53" t="n">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>19/09/2023 06:12</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>13.34</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>24/09/2023 18:59</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>19/09/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>7.72</v>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>24/09/2023 18:59</t>
+        </is>
+      </c>
+      <c r="R53" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>19/09/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T53" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>24/09/2023 18:51</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/portimonense-benfica/0INmYX53/</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>45193.89583333334</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Braga</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>4</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Boavista</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>18/09/2023 20:42</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>24/09/2023 21:07</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>18/09/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>24/09/2023 21:28</t>
+        </is>
+      </c>
+      <c r="R54" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>18/09/2023 20:42</t>
+        </is>
+      </c>
+      <c r="T54" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>24/09/2023 21:28</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/braga-boavista/tSVeWBzG/</t>
         </is>
       </c>
     </row>

--- a/2023/portugal_liga-portugal_2023-2024.xlsx
+++ b/2023/portugal_liga-portugal_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V54"/>
+  <dimension ref="A1:V55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5425,6 +5425,98 @@
         </is>
       </c>
     </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45194.88541666666</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Sporting CP</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>2</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Rio Ave</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>18/09/2023 20:42</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>25/09/2023 21:02</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>18/09/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>25/09/2023 21:02</t>
+        </is>
+      </c>
+      <c r="R55" t="n">
+        <v>14.19</v>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>18/09/2023 20:42</t>
+        </is>
+      </c>
+      <c r="T55" t="n">
+        <v>17.78</v>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>25/09/2023 21:02</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/sporting-lisbon-rio-ave/zkVaVVkM/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
